--- a/tables/Data.xlsx
+++ b/tables/Data.xlsx
@@ -203,13 +203,13 @@
     <t>https://bfvd.steineggerlab.workers.dev/</t>
   </si>
   <si>
-    <t xml:space="preserve">ESM Atlas </t>
+    <t>ESM Atlas</t>
   </si>
   <si>
     <t>772M struct</t>
   </si>
   <si>
-    <t>metagenomic protein structures predicted by ESMFold</t>
+    <t>Metagenomic protein structures predicted by ESMFold</t>
   </si>
   <si>
     <t>https://esmatlas.com/</t>
@@ -236,7 +236,7 @@
     <t>68K annotations</t>
   </si>
   <si>
-    <t>set of all annotated functional characteristics</t>
+    <t>Set of all annotated functional characteristics</t>
   </si>
   <si>
     <t>https://functionome.geneontology.org/</t>
@@ -515,7 +515,7 @@
     <t>27K sets</t>
   </si>
   <si>
-    <t>experimental binding affinity data</t>
+    <t>Experimental binding affinity data</t>
   </si>
   <si>
     <t>https://www.pdbbind-plus.org.cn/</t>
@@ -536,18 +536,7 @@
     <t>ProteinGym</t>
   </si>
   <si>
-    <r>
-      <t>∼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>300k mutants</t>
-    </r>
+    <t>~300k mutants</t>
   </si>
   <si>
     <t>Mutation effect prediction benchmark</t>
@@ -614,7 +603,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -646,12 +635,6 @@
       <sz val="11"/>
       <color rgb="FF175CEB"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1117,152 +1100,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1287,9 +1270,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1302,17 +1282,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1829,8 +1803,8 @@
   <sheetPr codeName="Data"/>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>
@@ -2061,22 +2035,22 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>2025</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2121,22 +2095,22 @@
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15" spans="1:6">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="4">
         <v>2023</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2161,22 +2135,22 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="12">
         <v>2025</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2621,42 +2595,42 @@
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="15" spans="1:6">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>2025</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="9" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="15" spans="1:6">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="8">
         <v>2018</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="9" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2667,7 +2641,7 @@
       <c r="B42" s="4">
         <v>2022</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="4" t="s">
         <v>169</v>
       </c>
       <c r="D42" s="4" t="s">
